--- a/biology/Médecine/Hôpital_israélite_de_Tunis/Hôpital_israélite_de_Tunis.xlsx
+++ b/biology/Médecine/Hôpital_israélite_de_Tunis/Hôpital_israélite_de_Tunis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_isra%C3%A9lite_de_Tunis</t>
+          <t>Hôpital_israélite_de_Tunis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’hôpital israélite de Tunis (arabe : المستشفى الإسرائيلي بتونس) est un ancien hôpital tunisien fondé par des médecins juifs livournais[1] et inauguré en 1895 sur la place Halfaouine[2], dans le faubourg nord de la médina de Tunis.
-Occupant le bâtiment du palais Khaznadar, il est dédié aux habitants juifs du quartier de la Hara[3]. 
-Parmi les médecins assurant les soins gratuits dans cet établissement sanitaire, on peut citer le docteur Guglielmo Levi, né à Livourne et venu de Padoue, qui cumulait la direction de l’hôpital israélite ainsi que de l’hôpital italien[3] (actuel hôpital Habib-Thameur).
+L’hôpital israélite de Tunis (arabe : المستشفى الإسرائيلي بتونس) est un ancien hôpital tunisien fondé par des médecins juifs livournais et inauguré en 1895 sur la place Halfaouine, dans le faubourg nord de la médina de Tunis.
+Occupant le bâtiment du palais Khaznadar, il est dédié aux habitants juifs du quartier de la Hara. 
+Parmi les médecins assurant les soins gratuits dans cet établissement sanitaire, on peut citer le docteur Guglielmo Levi, né à Livourne et venu de Padoue, qui cumulait la direction de l’hôpital israélite ainsi que de l’hôpital italien (actuel hôpital Habib-Thameur).
 </t>
         </is>
       </c>
